--- a/makerclan/projects/ELRMD059044/ELRMD059044.xlsx
+++ b/makerclan/projects/ELRMD059044/ELRMD059044.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>project_id</t>
   </si>
@@ -55,7 +55,10 @@
     <t xml:space="preserve">A POS(point of sale) device is needed which can be used by small and roadside merchants to get a confirmation whenever a customer pays through Paytm. The POS device should have a 16X2 LCD screen which should display the name and the amount paid by the customer. The device can make use of the confirmation message that Paytm sends, extract the name and amount from it and display it on the LCD. </t>
   </si>
   <si>
-    <t>2017-12-15</t>
+    <t>2018-01-11</t>
+  </si>
+  <si>
+    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,11 +434,12 @@
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +461,11 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -479,6 +486,9 @@
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/makerclan/projects/ELRMD059044/ELRMD059044.xlsx
+++ b/makerclan/projects/ELRMD059044/ELRMD059044.xlsx
@@ -55,10 +55,10 @@
     <t xml:space="preserve">A POS(point of sale) device is needed which can be used by small and roadside merchants to get a confirmation whenever a customer pays through Paytm. The POS device should have a 16X2 LCD screen which should display the name and the amount paid by the customer. The device can make use of the confirmation message that Paytm sends, extract the name and amount from it and display it on the LCD. </t>
   </si>
   <si>
-    <t>2018-01-11</t>
-  </si>
-  <si>
     <t>flag</t>
+  </si>
+  <si>
+    <t>2018-02-11</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.25">
@@ -482,7 +482,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>

--- a/makerclan/projects/ELRMD059044/ELRMD059044.xlsx
+++ b/makerclan/projects/ELRMD059044/ELRMD059044.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
         <v>11</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
